--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
@@ -540,40 +540,40 @@
         <v>7.522864</v>
       </c>
       <c r="I2">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J2">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="N2">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="O2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="P2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="Q2">
-        <v>6.416555799528889</v>
+        <v>7.732442632302221</v>
       </c>
       <c r="R2">
-        <v>57.74900219576001</v>
+        <v>69.59198369072</v>
       </c>
       <c r="S2">
-        <v>0.2143740996957791</v>
+        <v>0.2113591546192215</v>
       </c>
       <c r="T2">
-        <v>0.2143740996957791</v>
+        <v>0.2113591546192215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>7.522864</v>
       </c>
       <c r="I3">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J3">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N3">
         <v>19.361954</v>
       </c>
       <c r="O3">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="P3">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="Q3">
         <v>16.18414963513955</v>
@@ -632,10 +632,10 @@
         <v>145.657346716256</v>
       </c>
       <c r="S3">
-        <v>0.5407047979898414</v>
+        <v>0.4423787343502897</v>
       </c>
       <c r="T3">
-        <v>0.5407047979898415</v>
+        <v>0.4423787343502896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>7.522864</v>
       </c>
       <c r="I4">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J4">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="N4">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="O4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="P4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="Q4">
-        <v>7.150628509911111</v>
+        <v>10.10941773004267</v>
       </c>
       <c r="R4">
-        <v>64.3556565892</v>
+        <v>90.98475957038401</v>
       </c>
       <c r="S4">
-        <v>0.2388991223584018</v>
+        <v>0.2763315664558912</v>
       </c>
       <c r="T4">
-        <v>0.2388991223584019</v>
+        <v>0.2763315664558912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01519233333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H5">
-        <v>0.045577</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I5">
-        <v>0.006021979955977724</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J5">
-        <v>0.006021979955977723</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="N5">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="O5">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="P5">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="Q5">
-        <v>0.03887447170055556</v>
+        <v>0.5813909068988887</v>
       </c>
       <c r="R5">
-        <v>0.349870245305</v>
+        <v>5.232518162089999</v>
       </c>
       <c r="S5">
-        <v>0.00129877774499639</v>
+        <v>0.01589178173428818</v>
       </c>
       <c r="T5">
-        <v>0.00129877774499639</v>
+        <v>0.01589178173428818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01519233333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H6">
-        <v>0.045577</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I6">
-        <v>0.006021979955977724</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J6">
-        <v>0.006021979955977723</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N6">
         <v>19.361954</v>
       </c>
       <c r="O6">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="P6">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="Q6">
-        <v>0.09805108638422222</v>
+        <v>1.216862236320222</v>
       </c>
       <c r="R6">
-        <v>0.8824597774579999</v>
+        <v>10.951760126882</v>
       </c>
       <c r="S6">
-        <v>0.003275840501434427</v>
+        <v>0.03326180170833307</v>
       </c>
       <c r="T6">
-        <v>0.003275840501434427</v>
+        <v>0.03326180170833307</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01519233333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H7">
-        <v>0.045577</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I7">
-        <v>0.006021979955977724</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J7">
-        <v>0.006021979955977723</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="N7">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="O7">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="P7">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="Q7">
-        <v>0.04332182471944444</v>
+        <v>0.7601121433136667</v>
       </c>
       <c r="R7">
-        <v>0.389896422475</v>
+        <v>6.841009289823</v>
       </c>
       <c r="S7">
-        <v>0.001447361709546906</v>
+        <v>0.02077696113197648</v>
       </c>
       <c r="T7">
-        <v>0.001447361709546907</v>
+        <v>0.02077696113197647</v>
       </c>
     </row>
   </sheetData>
